--- a/local-dev/server/assets.xlsx
+++ b/local-dev/server/assets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="463">
   <si>
     <t xml:space="preserve">Registration Date</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Compaq</t>
   </si>
   <si>
-    <t xml:space="preserve">IU8839</t>
+    <t xml:space="preserve">IU-8839</t>
   </si>
   <si>
     <t xml:space="preserve">Intel Pentium 4</t>
@@ -1294,24 +1294,54 @@
     <t xml:space="preserve">AST050</t>
   </si>
   <si>
+    <t xml:space="preserve">LD083038</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-08-23T02:47:53.123Z</t>
   </si>
   <si>
     <t xml:space="preserve">AST051</t>
   </si>
   <si>
+    <t xml:space="preserve">DIU-8839</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-08-24T18:57:10.432Z</t>
   </si>
   <si>
     <t xml:space="preserve">AST052</t>
   </si>
   <si>
+    <t xml:space="preserve">IP88-399</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-08-25T10:29:18.765Z</t>
   </si>
   <si>
     <t xml:space="preserve">AST053</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GS899-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">778</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2024-08-26T15:42:49.109Z</t>
   </si>
   <si>
@@ -1342,16 +1372,25 @@
     <t xml:space="preserve">AST058</t>
   </si>
   <si>
+    <t xml:space="preserve">LJ083-908</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-08-31T10:51:23.987Z</t>
   </si>
   <si>
     <t xml:space="preserve">AST059</t>
   </si>
   <si>
+    <t xml:space="preserve">UM-088039</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-03-13T21:13:08.248Z</t>
   </si>
   <si>
     <t xml:space="preserve">AST060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDP8399-8</t>
   </si>
   <si>
     <t xml:space="preserve">2025-03-14T12:26:03.324Z</t>
@@ -1397,7 +1436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1419,6 +1458,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1463,12 +1508,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1664,3115 +1713,3125 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="F55" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="F56" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="A57" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="F58" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="A59" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="O59" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="O60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="A63" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="F63" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O63" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="A64" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="F64" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O64" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="A65" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O65" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="A66" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J66" s="1" t="s">
+      <c r="H66" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>455</v>
+      <c r="L66" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/local-dev/server/assets.xlsx
+++ b/local-dev/server/assets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="471">
   <si>
     <t xml:space="preserve">Registration Date</t>
   </si>
@@ -226,1150 +226,1156 @@
     <t xml:space="preserve">2024-07-04T10:37:12.467Z</t>
   </si>
   <si>
+    <t xml:space="preserve">AST005</t>
+  </si>
+  <si>
     <t xml:space="preserve">Printer</t>
   </si>
   <si>
     <t xml:space="preserve">LaserJet Pro MFP</t>
   </si>
   <si>
+    <t xml:space="preserve">LJ99812369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test print functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-05T15:58:45.623Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiDE 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN40-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarah@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan test complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-06T02:20:16.789Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EH-TW7100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP102938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mike@office.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs new lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-07T11:34:51.987Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2720Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL472938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jenny@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted screen angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-08T18:59:01.246Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QLED 55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM132456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lounge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robert@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewing perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-09T06:12:19.874Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP-Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archer AX73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLAX123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quad-core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lily@workplace.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-10T20:34:57.432Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyst 2960X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS998877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom@corp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmware updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-11T13:49:08.523Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXMA TR8520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTR8520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claire@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper feed checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-12T22:07:21.645Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BenQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT2050A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEN124578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adam@meetings.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No issues detected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-13T07:28:09.978Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EliteDisplay E243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPE243456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rita@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen flickering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-14T16:51:31.234Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLED55CXPUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGCXPUA2233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nash@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works flawlessly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-15T02:43:05.876Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT-AX88U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASU223344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sophia@tech.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Router rebooted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-16T09:58:17.532Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2930F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARU2930F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kate@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-17T14:35:42.123Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HL-L8360CDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRO8360CDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jason@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printer calibrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-18T19:12:50.987Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScanJet Pro 2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPSC2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lisa@admin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs calibration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-19T03:29:47.876Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViewSonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PX747-4K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSPX7474K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">david@tech.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-20T12:04:18.543Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odyssey G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMG7135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark@workplace.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh rate optimized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-21T21:39:29.675Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bravia A80J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONA80J908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tony@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streaming stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-22T06:48:31.347Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netgear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nighthawk XR1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETXR1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual-core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed optimized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-23T15:03:42.221Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniFi Switch 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBISW24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brian@corp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ports tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-24T22:17:59.100Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xerox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phaser 6510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XER6510PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eric@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color settings fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-25T10:11:57.436Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfection V600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPSV600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jennifer@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-26T19:50:34.502Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF50KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGPF50KA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patrick@office.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compact and reliable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-27T03:25:28.987Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R240HY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRR240HY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steve@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display adjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-28T14:07:18.876Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Series 55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL5654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linda@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound quality tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-29T12:55:37.346Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linksys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR9600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKS9600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gary@workplace.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected to 5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-30T05:42:19.783Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juniper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNEX2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patricia@corp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully operational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31T18:33:06.543Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EcoTank ET-2720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS2720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nora@office.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ink level monitored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-01T10:21:49.654Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADS-2700W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROADS2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jared@admin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network connectivity issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-02T09:42:11.768Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UHD60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPUHD60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grace@meetings.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-definition clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-03T16:20:29.478Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VX3276-2K-MHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS3276V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed@workplace.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibrated for color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-04T03:59:45.620Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hisense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65H8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSN65H8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pat@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voice control tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-05T19:18:23.587Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIR-882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLDIR882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ella@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiFi coverage checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-06T06:34:57.895Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TL-SG108E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLSG108E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chris@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-07T11:49:13.904Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xpress M2020W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMX2020W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarah@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toner replaced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-08T08:17:42.265Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujitsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScanSnap iX1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUS1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brian@admin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanner malfunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-09T14:59:03.476Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX9220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPEX9220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greg@office.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-10T02:12:10.678Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX3501R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEN3501R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pam@workplace.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display flawless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-11T20:25:57.987Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-60N7000U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHPLC60N7000U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucas@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netflix test passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-12T07:33:41.890Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MikroTik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RB4011iGS+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIKRB4011GS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julie@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN setup complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-13T18:46:56.123Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3650-48P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS365048P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daniel@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uplink configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-14T05:12:09.543Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP C262DNw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICSP262DNW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emily@company.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test print completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-15T13:47:32.654Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanmate i1150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODi1150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julia@admin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to scan duplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-16T09:28:51.902Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT-VZ580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANPTVZ580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carol@meetings.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-17T16:59:03.314Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG279Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUVG279Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karl@workplace.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-18T03:14:46.765Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-Series 55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIZM55100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nina@home.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound system works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-19T12:22:43.276Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deco X60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLDX601234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alicia@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fi 6 setup complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-20T21:38:29.801Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5720-28X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUS572028X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steve@corp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic monitored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-21T05:19:12.645Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3326dw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEX3326DW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irene@work.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color accuracy fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-22T14:04:11.734Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD083038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-23T02:47:53.123Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIU-8839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-24T18:57:10.432Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP88-399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-25T10:29:18.765Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS899-778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-26T15:42:49.109Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST058</t>
+  </si>
+  <si>
     <t xml:space="preserve">LJ998123</t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">john@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test print functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-05T15:58:45.623Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LiDE 400</t>
+    <t xml:space="preserve">2024-08-27T21:14:23.534Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AST059</t>
   </si>
   <si>
     <t xml:space="preserve">CAN400239</t>
   </si>
   <si>
-    <t xml:space="preserve">2GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarah@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan test complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-06T02:20:16.789Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EH-TW7100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EP102938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mike@office.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needs new lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-07T11:34:51.987Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2720Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL472938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jenny@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjusted screen angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-08T18:59:01.246Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLED 55"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM132456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tizen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lounge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robert@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excellent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viewing perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-09T06:12:19.874Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP-Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archer AX73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLAX123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quad-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lily@workplace.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network stable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-10T20:34:57.432Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalyst 2960X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS998877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tom@corp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firmware updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-11T13:49:08.523Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIXMA TR8520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTR8520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claire@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper feed checked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-12T22:07:21.645Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BenQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT2050A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN124578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adam@meetings.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No issues detected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-13T07:28:09.978Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EliteDisplay E243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPE243456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rita@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen flickering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-14T16:51:31.234Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLED55CXPUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGCXPUA2233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nash@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Works flawlessly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-15T02:43:05.876Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT-AX88U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASU223344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sophia@tech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router rebooted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-16T09:58:17.532Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2930F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARU2930F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2TB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kate@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-17T14:35:42.123Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HL-L8360CDW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRO8360CDW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jason@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printer calibrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-18T19:12:50.987Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScanJet Pro 2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPSC2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lisa@admin.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needs calibration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-19T03:29:47.876Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ViewSonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PX747-4K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSPX7474K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">david@tech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-20T12:04:18.543Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odyssey G7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMG7135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark@workplace.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refresh rate optimized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-21T21:39:29.675Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bravia A80J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONA80J908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tony@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streaming stable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-22T06:48:31.347Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netgear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nighthawk XR1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NETXR1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kevin@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed optimized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-23T15:03:42.221Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniFi Switch 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBISW24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brian@corp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ports tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-24T22:17:59.100Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xerox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phaser 6510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XER6510PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eric@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color settings fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-25T10:11:57.436Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfection V600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPSV600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jennifer@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolution issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-26T19:50:34.502Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF50KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGPF50KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patrick@office.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compact and reliable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-27T03:25:28.987Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R240HY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACRR240HY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steve@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display adjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-28T14:07:18.876Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Series 55"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCL5654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linda@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound quality tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-29T12:55:37.346Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linksys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR9600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LKS9600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gary@workplace.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connected to 5G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-30T05:42:19.783Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juniper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX2300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNEX2300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patricia@corp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fully operational</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-31T18:33:06.543Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EcoTank ET-2720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS2720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nora@office.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ink level monitored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-01T10:21:49.654Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADS-2700W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROADS2700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jared@admin.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network connectivity issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-02T09:42:11.768Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UHD60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPUHD60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grace@meetings.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-definition clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-03T16:20:29.478Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VX3276-2K-MHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VS3276V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed@workplace.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calibrated for color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-04T03:59:45.620Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hisense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65H8F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSN65H8F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pat@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voice control tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-05T19:18:23.587Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR-882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLDIR882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ella@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WiFi coverage checked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-06T06:34:57.895Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TL-SG108E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLSG108E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chris@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VLAN configured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-07T11:49:13.904Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xpress M2020W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMX2020W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarah@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toner replaced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-08T08:17:42.265Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fujitsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScanSnap iX1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUS1500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brian@admin.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scanner malfunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-09T14:59:03.476Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX9220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPEX9220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greg@office.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-10T02:12:10.678Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX3501R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN3501R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pam@workplace.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display flawless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-11T20:25:57.987Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-60N7000U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHPLC60N7000U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lucas@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netflix test passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-12T07:33:41.890Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MikroTik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RB4011iGS+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIKRB4011GS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">julie@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPN setup complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-13T18:46:56.123Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3650-48P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS365048P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daniel@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uplink configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-14T05:12:09.543Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricoh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP C262DNw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICSP262DNW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emily@company.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test print completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-15T13:47:32.654Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kodak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scanmate i1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KODi1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">julia@admin.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to scan duplex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-16T09:28:51.902Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panasonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT-VZ580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANPTVZ580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carol@meetings.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-17T16:59:03.314Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VG279Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASUVG279Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karl@workplace.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaming tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-18T03:14:46.765Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vizio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-Series 55"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIZM55100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smartcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nina@home.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sound system works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-19T12:22:43.276Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deco X60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLDX601234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alicia@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wi-Fi 6 setup complete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-20T21:38:29.801Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huawei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5720-28X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUS572028X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steve@corp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic monitored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-21T05:19:12.645Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3326dw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEX3326DW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irene@work.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color accuracy fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-22T14:04:11.734Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD083038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-23T02:47:53.123Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIU-8839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-24T18:57:10.432Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP88-399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-25T10:29:18.765Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST053</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GS899-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">778</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-26T15:42:49.109Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-27T21:14:23.534Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST055</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-08-28T08:56:09.765Z</t>
   </si>
   <si>
-    <t xml:space="preserve">AST056</t>
+    <t xml:space="preserve">AST060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EP1022538</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08-29T16:11:56.231Z</t>
   </si>
   <si>
-    <t xml:space="preserve">AST057</t>
+    <t xml:space="preserve">AST061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL-4729-38</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08-30T05:39:45.876Z</t>
   </si>
   <si>
-    <t xml:space="preserve">AST058</t>
+    <t xml:space="preserve">AST062</t>
   </si>
   <si>
     <t xml:space="preserve">LJ083-908</t>
@@ -1378,7 +1384,7 @@
     <t xml:space="preserve">2024-08-31T10:51:23.987Z</t>
   </si>
   <si>
-    <t xml:space="preserve">AST059</t>
+    <t xml:space="preserve">AST063</t>
   </si>
   <si>
     <t xml:space="preserve">UM-088039</t>
@@ -1387,7 +1393,7 @@
     <t xml:space="preserve">2025-03-13T21:13:08.248Z</t>
   </si>
   <si>
-    <t xml:space="preserve">AST060</t>
+    <t xml:space="preserve">AST064</t>
   </si>
   <si>
     <t xml:space="preserve">LDP8399-8</t>
@@ -1396,7 +1402,7 @@
     <t xml:space="preserve">2025-03-14T12:26:03.324Z</t>
   </si>
   <si>
-    <t xml:space="preserve">AST061</t>
+    <t xml:space="preserve">AST065</t>
   </si>
   <si>
     <t xml:space="preserve">Server</t>
@@ -1436,7 +1442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1458,12 +1464,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1713,23 +1713,23 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
+      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F2:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,31 +1972,31 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>25</v>
@@ -2005,45 +2005,45 @@
         <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>25</v>
@@ -2052,92 +2052,92 @@
         <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>25</v>
@@ -2146,183 +2146,183 @@
         <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>38</v>
@@ -2334,86 +2334,86 @@
         <v>26</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>37</v>
@@ -2428,186 +2428,186 @@
         <v>52</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>25</v>
@@ -2616,45 +2616,45 @@
         <v>26</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>25</v>
@@ -2663,86 +2663,86 @@
         <v>52</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2754,92 +2754,92 @@
         <v>25</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>24</v>
@@ -2851,92 +2851,92 @@
         <v>26</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>25</v>
@@ -2945,45 +2945,45 @@
         <v>26</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>25</v>
@@ -2992,92 +2992,92 @@
         <v>52</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>25</v>
@@ -3086,92 +3086,92 @@
         <v>26</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>25</v>
@@ -3180,92 +3180,92 @@
         <v>26</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>25</v>
@@ -3274,42 +3274,42 @@
         <v>26</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>38</v>
@@ -3321,86 +3321,86 @@
         <v>52</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>37</v>
@@ -3415,89 +3415,89 @@
         <v>26</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>24</v>
@@ -3506,92 +3506,92 @@
         <v>25</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>38</v>
@@ -3603,45 +3603,45 @@
         <v>26</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>25</v>
@@ -3650,92 +3650,92 @@
         <v>52</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>25</v>
@@ -3744,186 +3744,186 @@
         <v>26</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>25</v>
@@ -3932,45 +3932,45 @@
         <v>26</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>25</v>
@@ -3979,92 +3979,92 @@
         <v>52</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>25</v>
@@ -4073,209 +4073,209 @@
         <v>26</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
@@ -4287,7 +4287,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>21</v>
@@ -4305,7 +4305,7 @@
         <v>25</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>27</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>32</v>
@@ -4334,7 +4334,7 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>21</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>44</v>
@@ -4381,7 +4381,7 @@
         <v>46</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>48</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>58</v>
@@ -4428,7 +4428,7 @@
         <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>62</v>
@@ -4460,34 +4460,34 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>25</v>
@@ -4496,45 +4496,45 @@
         <v>26</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>25</v>
@@ -4543,92 +4543,92 @@
         <v>26</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>52</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>54</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>99</v>
+        <v>449</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>25</v>
@@ -4637,21 +4637,21 @@
         <v>26</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
@@ -4663,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>21</v>
@@ -4695,10 +4695,10 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>32</v>
@@ -4710,7 +4710,7 @@
         <v>34</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>44</v>
@@ -4757,7 +4757,7 @@
         <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>48</v>
@@ -4789,49 +4789,49 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
